--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AC/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AC/15/seed4/result_data_KNN.xlsx
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.952</v>
+        <v>-12.584</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.868</v>
+        <v>-20.775</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
@@ -621,7 +621,7 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.204</v>
+        <v>-12.934</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.398</v>
+        <v>-21.985</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.932</v>
+        <v>-21.757</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
